--- a/data/income_statement/2digits/total/22_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/22_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>22-Manufacture of rubber and plastic products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>22-Manufacture of rubber and plastic products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>23378687.60978</v>
@@ -956,76 +862,86 @@
         <v>28903588.31842</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>38956221.86789</v>
+        <v>38956306.61365</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>42536303.124</v>
+        <v>42895178.45458999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>48481764.07079</v>
+        <v>48892826.83634999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>56930588.60951999</v>
+        <v>57414666.17087</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>59765305.56144</v>
+        <v>64287544.78681</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>71166386.18366</v>
+        <v>71808868.71723001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>92632531.97934999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>122057863.87352</v>
+        <v>122152931.99007</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>133152446.52042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>134120467.76007</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>169033333.468</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>17571293.54505</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>22184394.44327</v>
+        <v>22184394.44327001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>29400788.64011</v>
+        <v>29400873.38587</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>32538763.38279</v>
+        <v>32748368.87249</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>36700766.97002</v>
+        <v>36935638.76542</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>43192671.87616999</v>
+        <v>43476477.59234</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>47437035.51019</v>
+        <v>49837729.31637999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>55343550.66739</v>
+        <v>55661500.78822999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>71597486.17997</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>90594797.32736002</v>
+        <v>90680892.68089999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>96660623.87203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>97550924.46659002</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>124227583.991</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5569054.61055</v>
@@ -1034,37 +950,42 @@
         <v>6470749.48911</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>9140119.666029999</v>
+        <v>9140119.666030001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>9615106.58147</v>
+        <v>9764281.504719999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>11313751.47967</v>
+        <v>11489478.56115</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>13171740.99368</v>
+        <v>13368997.33153</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11710698.03404</v>
+        <v>13793915.46021</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>14810185.16122</v>
+        <v>15132097.83917</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>19802679.49576</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>29893152.48557</v>
+        <v>29901914.93429</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>34726783.97465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>34800285.23336</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>42750498.684</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>238339.45418</v>
@@ -1073,37 +994,42 @@
         <v>248444.38604</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>415313.56175</v>
+        <v>415313.5617500001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>382433.15974</v>
+        <v>382528.07738</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>467245.6211</v>
+        <v>467709.50978</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>566175.7396699999</v>
+        <v>569191.247</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>617572.0172100001</v>
+        <v>655900.0102200001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1012650.35505</v>
+        <v>1015270.08983</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1232366.30362</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1569914.06059</v>
+        <v>1570124.37488</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1765038.67374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1769258.06012</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2055250.793</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1354313.87364</v>
@@ -1115,34 +1041,39 @@
         <v>1849262.49688</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2254608.9511</v>
+        <v>2263820.67126</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2382737.19179</v>
+        <v>2389477.94815</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2721338.408919999</v>
+        <v>2730460.82185</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2444997.66349</v>
+        <v>2810411.2815</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3297695.88709</v>
+        <v>3322703.40617</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>4228523.37179</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6041527.31879</v>
+        <v>6041792.87433</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6123058.864859999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6127885.09943</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>8524114.757999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>217304.55429</v>
@@ -1154,34 +1085,39 @@
         <v>279806.21646</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>307500.05692</v>
+        <v>311027.0554199999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>320525.64451</v>
+        <v>322301.78743</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>523591.31882</v>
+        <v>525015.8724</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>495744.9252999999</v>
+        <v>518589.48509</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>708692.7446</v>
+        <v>714257.1269200001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>811420.6022300001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1520272.12658</v>
+        <v>1520511.67862</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1263199.84489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1267035.62973</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1507456.674</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1049753.34329</v>
@@ -1193,40 +1129,45 @@
         <v>1467775.79829</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1821622.24721</v>
+        <v>1827306.96887</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1933901.93139</v>
+        <v>1935557.95311</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2021012.85543</v>
+        <v>2024479.16044</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1750989.28107</v>
+        <v>2049981.64367</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2342695.31737</v>
+        <v>2360232.63617</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>3119851.18961</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3948706.267349999</v>
+        <v>3948718.0677</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4329929.8156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4330430.32432</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6392786.035</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>87255.97606</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>97336.17181999999</v>
+        <v>97336.17182</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>101680.48213</v>
@@ -1235,31 +1176,36 @@
         <v>125486.64697</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>128309.61589</v>
+        <v>131618.20761</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>176734.23467</v>
+        <v>180965.78901</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>198263.45712</v>
+        <v>241840.15274</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>246307.82512</v>
+        <v>248213.64308</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>297251.57995</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>572548.92486</v>
+        <v>572563.12801</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>529929.2043700001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>530419.14538</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>623872.049</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>22024373.73614</v>
@@ -1268,37 +1214,42 @@
         <v>27244201.78104</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>37106959.37101</v>
+        <v>37107044.11677</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>40281694.1729</v>
+        <v>40631357.78333</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>46099026.879</v>
+        <v>46503348.8882</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>54209250.2006</v>
+        <v>54684205.34902</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>57320307.89794999</v>
+        <v>61477133.50531</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>67868690.29657</v>
+        <v>68486165.31106</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>88404008.60755999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>116016336.55473</v>
+        <v>116111139.11574</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>127029387.65556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>127992582.66064</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>160509218.71</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>17872588.2537</v>
@@ -1307,37 +1258,42 @@
         <v>22858575.67948</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>30937869.03858</v>
+        <v>30937949.80358</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>34033817.50916</v>
+        <v>34316598.09024</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>38386375.97234</v>
+        <v>38685474.5181</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>45369779.9413</v>
+        <v>45757922.49532</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>47338481.87205</v>
+        <v>50710126.57333</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>55654576.99669</v>
+        <v>56148744.65984</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>72457134.99286999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>94065978.67292</v>
+        <v>94156875.96323</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>103961755.68218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>104866157.14196</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>128090479.004</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>15225291.50591</v>
@@ -1349,34 +1305,39 @@
         <v>26403521.4457</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>29238072.43652</v>
+        <v>29448278.04611</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>32621809.20241</v>
+        <v>32915234.73071</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>38198004.00962</v>
+        <v>38577364.15516</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>39460239.11754999</v>
+        <v>42472196.71140999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>46434057.4496</v>
+        <v>46865333.62624001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>60900705.16318999</v>
+        <v>60900705.16319</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>79097874.26304999</v>
+        <v>79124161.83294</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>89233657.08335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>89821607.29081</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>108721836.244</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2263605.38996</v>
@@ -1385,37 +1346,42 @@
         <v>2853756.79531</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3931976.64396</v>
+        <v>3932057.40896</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4132290.58752</v>
+        <v>4199573.94142</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5061019.97745</v>
+        <v>5066680.14305</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6307402.100860001</v>
+        <v>6315419.58477</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6934433.63627</v>
+        <v>7244281.269069999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8013889.38982</v>
+        <v>8057901.237600001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>10138489.8834</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>13333255.66231</v>
+        <v>13396947.24023</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>13063961.88453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13368722.23232</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>17678504.302</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>201423.17079</v>
@@ -1427,34 +1393,39 @@
         <v>391462.00379</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>372208.6242899999</v>
+        <v>377500.24188</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>366026.34182</v>
+        <v>366039.19368</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>399597.95302</v>
+        <v>399805.12942</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>474091.95082</v>
+        <v>476088.17175</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>570431.1675900001</v>
+        <v>586947.16624</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>744206.7138</v>
+        <v>744206.7137999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>860889.6387100001</v>
+        <v>861735.0183</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>838007.33266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>849172.44973</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>893473.527</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>182268.18704</v>
@@ -1472,28 +1443,33 @@
         <v>337520.45066</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>464775.8778</v>
+        <v>465333.6259700001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>469717.1674100001</v>
+        <v>517560.4211</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>636198.9896800001</v>
+        <v>638562.6297600002</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>673733.23248</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>773959.1088500001</v>
+        <v>774031.87176</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>826129.38164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>826655.1690999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>796664.931</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>4151785.48244</v>
@@ -1502,76 +1478,86 @@
         <v>4385626.101559999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6169090.33243</v>
+        <v>6169094.313189999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6247876.66374</v>
+        <v>6314759.69309</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7712650.90666</v>
+        <v>7817874.3701</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8839470.259299999</v>
+        <v>8926282.853700001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9981826.025899999</v>
+        <v>10767006.93198</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>12214113.29988</v>
+        <v>12337420.65122</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>15946873.61469</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>21950357.88181001</v>
+        <v>21954263.15251</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>23067631.97338</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>23126425.51868</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>32418739.706</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2267244.47969</v>
+        <v>2267244.479689999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>2687039.85624</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3245465.71731</v>
+        <v>3245497.7944</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3725015.14722</v>
+        <v>3757222.73978</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4325300.41921</v>
+        <v>4365111.575189999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5016267.589450001</v>
+        <v>5058498.11931</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5262262.7645</v>
+        <v>5792651.149049999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6476166.07597</v>
+        <v>6553787.165019999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7688333.06447</v>
+        <v>7688333.064470001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9719326.72315</v>
+        <v>9732358.29889</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11294920.992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11351226.39315</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>13589825.616</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>35286.54411</v>
@@ -1586,31 +1572,36 @@
         <v>71812.7115</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>80533.7175</v>
+        <v>81074.06861000002</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>86273.52616999998</v>
+        <v>86879.37273</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>96192.05592</v>
+        <v>104490.17562</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>106177.92482</v>
+        <v>107768.42357</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>114660.81221</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>156596.6751</v>
+        <v>156616.47635</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>240988.96323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>239110.51488</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>297928.906</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1052422.94786</v>
@@ -1622,34 +1613,39 @@
         <v>1539741.36602</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1766152.14697</v>
+        <v>1789139.00109</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2070565.11024</v>
+        <v>2092278.3273</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2402945.44987</v>
+        <v>2424203.69641</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2459945.16069</v>
+        <v>2718187.1455</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3013444.41863</v>
+        <v>3054897.69822</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3642942.15659</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4538583.97266</v>
+        <v>4539483.20833</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5152303.40137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5169522.99961</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6318378.767</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1179534.98772</v>
@@ -1658,37 +1654,42 @@
         <v>1394311.98899</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1652726.1276</v>
+        <v>1652758.20469</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1887050.28875</v>
+        <v>1896271.02719</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2174201.59147</v>
+        <v>2191759.17928</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2527048.61341</v>
+        <v>2547415.05017</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2706125.54789</v>
+        <v>2969973.82793</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3356543.73252</v>
+        <v>3391121.043229999</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>3930730.09567</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5024146.075389999</v>
+        <v>5036258.61421</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5901628.627400001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5942592.87866</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6973517.943</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1884541.00275</v>
@@ -1697,37 +1698,42 @@
         <v>1698586.24532</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2923624.61512</v>
+        <v>2923596.51879</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2522861.51652</v>
+        <v>2557536.95331</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3387350.48745</v>
+        <v>3452762.79491</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3823202.66985</v>
+        <v>3867784.73439</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4719563.261399999</v>
+        <v>4974355.782930001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5737947.22391</v>
+        <v>5783633.4862</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8258540.55022</v>
+        <v>8258540.550220001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>12231031.15866</v>
+        <v>12221904.85362</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>11772710.98138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>11775199.12553</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>18828914.09</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1104451.88184</v>
@@ -1736,37 +1742,42 @@
         <v>1155870.52916</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1603652.14345</v>
+        <v>1603652.16417</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1674166.81659</v>
+        <v>1703145.8836</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1755910.62978</v>
+        <v>1773134.69119</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3642325.95879</v>
+        <v>3660072.77327</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3507400.14398</v>
+        <v>3838487.09833</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3770246.97351</v>
+        <v>3809687.03828</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4992770.2526</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13295610.75077</v>
+        <v>13305403.81314</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8490969.00302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8499002.283090001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14383868.445</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5019.85386</v>
@@ -1787,7 +1798,7 @@
         <v>25857.32687</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>34007.06999</v>
+        <v>35445.53923</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>152527.40791</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>249348.81382</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>22486.051</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>24206.96945</v>
@@ -1826,7 +1842,7 @@
         <v>8399.47207</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>11469.37596</v>
+        <v>13905.19953</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>19003.32657</v>
@@ -1835,55 +1851,65 @@
         <v>138577.37536</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>67020.54404000001</v>
+        <v>67020.54403999999</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>101209.57478</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>68958.46799999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>100205.70743</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>87443.97691</v>
+        <v>87443.97691000001</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>96953.17829</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>123984.77257</v>
+        <v>126280.29543</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>107305.9435</v>
+        <v>107364.16734</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>134923.24033</v>
+        <v>135216.56154</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>154072.9081</v>
+        <v>166938.09312</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>195570.03197</v>
+        <v>199730.96737</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>392758.65467</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>721973.8773000001</v>
+        <v>722423.17739</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>689927.4408999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>691205.07951</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>584569.626</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1873.46273</v>
@@ -1895,34 +1921,39 @@
         <v>2568.64661</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6636.17302</v>
+        <v>6636.173019999999</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>3854.85959</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>6466.629579999999</v>
+        <v>6466.62958</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>7435.8898</v>
+        <v>8086.78053</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4587.42472</v>
+        <v>4587.424720000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>5562.803809999999</v>
+        <v>5562.80381</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>36449.45786</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14044.5329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>14119.59434</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>22990.674</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>37860.79479</v>
@@ -1934,37 +1965,42 @@
         <v>30783.69089</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>31931.86912</v>
+        <v>32029.64912</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>41709.83803</v>
+        <v>41710.24203</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>47280.18687999999</v>
+        <v>47280.18688</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>42567.87314</v>
+        <v>50675.41655</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>60884.30419</v>
+        <v>61093.2875</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>67004.19297</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>70883.97734</v>
+        <v>71747.13287999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>116303.37685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>117192.15386</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>117338.904</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4713.89303</v>
+        <v>4713.893029999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>5789.46742</v>
@@ -1973,19 +2009,19 @@
         <v>6443.37033</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>6267.42007</v>
+        <v>6276.457759999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4246.29968</v>
+        <v>4246.8147</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>11273.8055</v>
+        <v>11291.15545</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>25387.87561</v>
+        <v>25961.53983</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>19986.21683</v>
+        <v>19986.68759</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>15967.01565</v>
@@ -1994,13 +2030,18 @@
         <v>39831.44207</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>564952.7426000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>564953.0257199999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>91257.04300000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>786488.15727</v>
@@ -2009,40 +2050,45 @@
         <v>853159.6044900001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1273109.88394</v>
+        <v>1273109.90466</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1299648.35887</v>
+        <v>1321236.25812</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1351958.47269</v>
+        <v>1366971.57935</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3121453.85057</v>
+        <v>3137374.92193</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2865628.75394</v>
+        <v>3148977.17987</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2626017.24331</v>
+        <v>2646751.27363</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>3708891.85276</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>11138358.2302</v>
+        <v>11146300.6602</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5891962.623600001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5896665.079300001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12480338.407</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>5957.90374</v>
+        <v>5957.903740000001</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>4464.79058</v>
@@ -2051,19 +2097,19 @@
         <v>5851.62885</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>3734.83675</v>
+        <v>6955.504650000001</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>23375.83841</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>53472.93931</v>
+        <v>53600.36626</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>70827.43732</v>
+        <v>71126.52568000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>89190.15492999999</v>
+        <v>93519.90221000001</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>124393.89308</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>168074.37492</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>138865.063</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>180.83321</v>
@@ -2096,28 +2147,33 @@
         <v>29.89663</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>104.42347</v>
+        <v>1466.01246</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>532.2905900000001</v>
+        <v>532.29059</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>587.24148</v>
+        <v>588.67828</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>332.24812</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>7810.74094</v>
+        <v>7810.740940000001</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>271.90051</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>724.231</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>137944.30633</v>
@@ -2129,73 +2185,83 @@
         <v>162505.43681</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>169328.19974</v>
+        <v>171096.35905</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>200521.68627</v>
+        <v>202673.49816</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>233094.08421</v>
+        <v>233120.14023</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>295470.66953</v>
+        <v>316838.5334</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>601893.6216000001</v>
+        <v>611898.0825000001</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>482408.9376</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>731206.92811</v>
+        <v>731745.1048499999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>694873.6221400001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>695962.6863299999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>856339.978</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>992217.2425500001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>926056.9064399999</v>
+        <v>926056.90644</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>2100194.24463</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1154402.32639</v>
+        <v>1175601.52301</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2382751.26334</v>
+        <v>2394397.0242</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3514144.69718</v>
+        <v>3534400.11885</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3755435.18667</v>
+        <v>4042068.53514</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3915643.68991</v>
+        <v>3939471.31461</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4717491.91401</v>
+        <v>4717491.914009999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>13484980.42251</v>
+        <v>13503036.67571</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7051728.91111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7062393.096669999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13214817</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>8896.45383</v>
@@ -2210,13 +2276,13 @@
         <v>13821.65001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>16912.14122</v>
+        <v>16912.32599</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>22242.87052</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>19783.53782</v>
+        <v>19974.6587</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>16750.40683</v>
@@ -2225,40 +2291,45 @@
         <v>22799.81483</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>36643.82498</v>
+        <v>36645.90428</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>43968.07586</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>44261.33264</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>73655.55</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>133100.69098</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>92881.73028999999</v>
+        <v>92881.73029000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>83438.10584999999</v>
+        <v>83438.10585000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>126972.79502</v>
+        <v>130293.48709</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>150646.54349</v>
+        <v>150729.75333</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>154336.54463</v>
+        <v>154442.43378</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>171846.32086</v>
+        <v>204903.71386</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>247904.621</v>
+        <v>248541.83206</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>284416.79619</v>
@@ -2267,13 +2338,18 @@
         <v>442547.62596</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>434351.53156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>437024.21355</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>446078.318</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3344.82568</v>
@@ -2285,73 +2361,83 @@
         <v>1303.0519</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1116.80502</v>
+        <v>15809.72688</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>7885.33175</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>987.9028099999999</v>
+        <v>987.90281</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>1911.69182</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>61303.02277999999</v>
+        <v>61303.02278</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>9650.75999</v>
+        <v>9650.759990000002</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>65126.23962</v>
+        <v>65126.23961999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5513.80721</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3398.15907</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>5055.897</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>760482.6700699999</v>
+        <v>760482.6700700001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>727057.2711799999</v>
+        <v>727057.27118</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>1913216.81096</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>900823.8340999999</v>
+        <v>900835.0376599999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2058765.06216</v>
+        <v>2069846.234</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3175083.72299</v>
+        <v>3193676.77546</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3370558.34709</v>
+        <v>3618086.2364</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3279074.69676</v>
+        <v>3297416.608109999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4058715.52223</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12440879.67189</v>
+        <v>12457174.11702</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6121435.27291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6126191.352879999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>12128326.74</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>5039.70978</v>
@@ -2363,19 +2449,19 @@
         <v>6710.50121</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>4997.887900000001</v>
+        <v>7898.36578</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>42537.0172</v>
+        <v>42617.94514</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>57411.90705</v>
+        <v>57485.557</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>77901.81133</v>
+        <v>78121.60483999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>115106.98832</v>
+        <v>118238.19031</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>137184.38728</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>154401.94374</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>192554.275</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>109.85166</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>15.65151</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>81243.04055000001</v>
+        <v>81243.04054999999</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>79470.58472</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>83236.96199000001</v>
+        <v>83236.96199</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>106581.2815</v>
+        <v>106855.18275</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>105465.01103</v>
+        <v>105865.2775</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>104000.12998</v>
+        <v>105482.96008</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>113284.58449</v>
+        <v>118921.73626</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>195503.95418</v>
+        <v>197221.25448</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>204201.31646</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>309758.88703</v>
+        <v>311518.6158</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>292042.62832</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>297100.4432799999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>369145.72</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>715036.18756</v>
@@ -2477,76 +2578,86 @@
         <v>570479.78873</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>970777.4060899999</v>
+        <v>970821.6997999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1013877.16931</v>
+        <v>1032506.89668</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1391984.01392</v>
+        <v>1396752.53026</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1424014.10619</v>
+        <v>1428968.19548</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1860079.84177</v>
+        <v>2036865.77401</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2341889.21165</v>
+        <v>2351399.28275</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>3333407.7985</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5794064.17459</v>
+        <v>5796065.955770001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4817336.62663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4818024.99561</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5984055.832</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>581213.5421600001</v>
+        <v>581213.54216</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>456347.24424</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>766121.75137</v>
+        <v>766166.04508</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>868309.70057</v>
+        <v>883490.90299</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1067745.98048</v>
+        <v>1072514.49682</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1198212.65096</v>
+        <v>1202973.57134</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1577580.23593</v>
+        <v>1672782.59731</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1967741.45483</v>
+        <v>1973279.02026</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2716815.20257</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4209732.23583</v>
+        <v>4211019.238109999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3996230.99384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3996854.71306</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4466988.057</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>133822.6454</v>
@@ -2558,34 +2669,39 @@
         <v>204655.65472</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>145567.46874</v>
+        <v>149015.99369</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>324238.03344</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>225801.45523</v>
+        <v>225994.62414</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>282499.60584</v>
+        <v>364083.1767</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>374147.7568200001</v>
+        <v>378120.2624899999</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>616592.5959300001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1584331.93876</v>
+        <v>1585046.71766</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>821105.6327899999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>821170.2825500001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1517067.775</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1281739.45448</v>
@@ -2594,37 +2710,42 @@
         <v>1357920.07931</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1456305.10785</v>
+        <v>1456232.73853</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2028748.83741</v>
+        <v>2052574.41722</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1368525.83997</v>
+        <v>1434747.93164</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2527369.82527</v>
+        <v>2564489.19333</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2611448.37694</v>
+        <v>2733908.57211</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>3250661.29586</v>
+        <v>3302449.92712</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>5200411.09031</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>6247597.31233</v>
+        <v>6228206.03528</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8394614.446659999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>8393783.316339999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>14013909.703</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>149743.15828</v>
@@ -2633,37 +2754,42 @@
         <v>148749.38448</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>192558.99368</v>
+        <v>192603.28739</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>246843.33521</v>
+        <v>252321.9692</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>303485.13313</v>
+        <v>307277.84855</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>602213.5990299999</v>
+        <v>608707.89272</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>568920.30515</v>
+        <v>611469.7001200001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>689370.35471</v>
+        <v>694988.1767099999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>597715.29018</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>747535.78571</v>
+        <v>752886.07505</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>984042.78009</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>987607.8014400001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1168823.697</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6065.91367</v>
@@ -2681,28 +2807,33 @@
         <v>9260.22251</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>5262.14235</v>
+        <v>5262.142350000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5045.56194</v>
+        <v>12435.74174</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>41092.18239</v>
+        <v>41635.97945000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>16973.73256</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>16625.9318</v>
+        <v>16627.54443</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>43173.4765</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>43226.2728</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>62705.43</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>143677.24461</v>
@@ -2711,37 +2842,42 @@
         <v>145028.37786</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>189126.75019</v>
+        <v>189171.0439</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>240261.81376</v>
+        <v>245740.44775</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>294224.91062</v>
+        <v>298017.62604</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>596951.4566799999</v>
+        <v>603445.75037</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>563874.74321</v>
+        <v>599033.95838</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>648278.17232</v>
+        <v>653352.19726</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>580741.55762</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>730909.8539100001</v>
+        <v>736258.53062</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>940869.30359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>944381.5286400001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1106118.267</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>245543.4221</v>
@@ -2750,37 +2886,42 @@
         <v>214493.10269</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>620607.69551</v>
+        <v>620623.1295700001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>299916.27098</v>
+        <v>304839.17317</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>274734.16377</v>
+        <v>276255.16755</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>480223.1157099999</v>
+        <v>482656.65944</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>510441.42698</v>
+        <v>558649.809</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>758597.40993</v>
+        <v>765526.4026700001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>666646.8729600001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>878247.82607</v>
+        <v>884290.07522</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>870428.30495</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>881239.5668900001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>850300.287</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>85660.02690000001</v>
@@ -2789,37 +2930,42 @@
         <v>61180.45741</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>98956.97517000001</v>
+        <v>98956.97516999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>109221.25948</v>
+        <v>110140.05927</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>113087.86563</v>
+        <v>113921.7806</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>119427.7434</v>
+        <v>120298.86242</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>146888.11856</v>
+        <v>148619.56501</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>159895.02636</v>
+        <v>160633.63988</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>226480.35809</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>169575.12335</v>
+        <v>169750.3764</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>250686.91989</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>251515.75583</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>225844.839</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11148.1205</v>
@@ -2831,34 +2977,39 @@
         <v>11635.62499</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10565.05785</v>
+        <v>10841.02545</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>11060.43115</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>19357.3405</v>
+        <v>19357.46974</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>16904.11496</v>
+        <v>22519.71675</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>45906.23828</v>
+        <v>49152.94544999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>39133.41043</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>56078.07056</v>
+        <v>56181.56816</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>97595.77963999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>97390.58971000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>93096.462</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>148735.2747</v>
@@ -2867,37 +3018,42 @@
         <v>145087.8243</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>510015.09535</v>
+        <v>510030.52941</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>180129.95365</v>
+        <v>183858.08845</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>150585.86699</v>
+        <v>151272.9558</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>341438.03181</v>
+        <v>343000.32728</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>346649.19346</v>
+        <v>387510.52724</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>552796.14529</v>
+        <v>555739.8173400001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>401033.10444</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>652594.6321599999</v>
+        <v>658358.13066</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>522145.60542</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>532333.22135</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>531358.986</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1185939.19066</v>
@@ -2906,37 +3062,42 @@
         <v>1292176.3611</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1028256.40602</v>
+        <v>1028212.89635</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1975675.90164</v>
+        <v>2000057.21325</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1397276.80933</v>
+        <v>1465770.61264</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2649360.30859</v>
+        <v>2690540.42661</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2669927.25511</v>
+        <v>2786728.46323</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3181434.24064</v>
+        <v>3231911.70116</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5131479.507530001</v>
+        <v>5131479.50753</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>6116885.27197</v>
+        <v>6096802.035110001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>8508228.921799999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>8500151.550889999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>14332433.113</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>246855.9904</v>
@@ -2948,34 +3109,39 @@
         <v>299482.96508</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>374946.6933</v>
+        <v>379881.27506</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>355965.02126</v>
+        <v>369915.80173</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>464001.23122</v>
+        <v>472483.41448</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>510366.74911</v>
+        <v>556466.02178</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>677691.30958</v>
+        <v>688335.3881100001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>905439.6334800001</v>
+        <v>905439.6334800002</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1245779.55942</v>
+        <v>1247262.97233</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1391001.16738</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1399504.14685</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2393291.834</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>939083.20026</v>
@@ -2984,34 +3150,37 @@
         <v>1017273.9464</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>728773.4409399999</v>
+        <v>728729.9312699999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1600729.20834</v>
+        <v>1620175.93819</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1041311.78807</v>
+        <v>1095854.81091</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2185359.07737</v>
+        <v>2218057.01213</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2159560.506</v>
+        <v>2230262.44145</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2503742.93106</v>
+        <v>2543576.31305</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>4226039.87405</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>4871105.71255</v>
+        <v>4849539.06278</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>7117227.75442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7100647.404039999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11939141.279</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>6488</v>
@@ -3038,34 +3210,37 @@
         <v>6784</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6957</v>
+        <v>6958</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7039</v>
+        <v>7048</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6969</v>
+        <v>6983</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7013</v>
+        <v>7036</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7206</v>
+        <v>7277</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7423</v>
+        <v>7466</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7706</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7411</v>
+        <v>8012</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7450</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8269</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>